--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220517_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220517_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="271">
   <si>
     <t>사이트</t>
   </si>
@@ -778,6 +778,12 @@
     <t>HIGH UP</t>
   </si>
   <si>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>판타지오 뮤직</t>
+  </si>
+  <si>
     <t>안테나</t>
   </si>
   <si>
@@ -790,15 +796,27 @@
     <t>에버그로우</t>
   </si>
   <si>
+    <t>JYP</t>
+  </si>
+  <si>
     <t>플레디스</t>
   </si>
   <si>
+    <t>음악권력</t>
+  </si>
+  <si>
     <t>SSK</t>
   </si>
   <si>
+    <t>RBW</t>
+  </si>
+  <si>
     <t>IST</t>
   </si>
   <si>
+    <t>뮤직웍스</t>
+  </si>
+  <si>
     <t>더블엑스</t>
   </si>
   <si>
@@ -808,7 +826,7 @@
     <t>C9</t>
   </si>
   <si>
-    <t>기타</t>
+    <t>두루두루 아티스트 컴퍼니</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1239,7 @@
         <v>231</v>
       </c>
       <c r="H2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1247,7 +1265,7 @@
         <v>232</v>
       </c>
       <c r="H3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1273,7 +1291,7 @@
         <v>233</v>
       </c>
       <c r="H4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1299,7 +1317,7 @@
         <v>234</v>
       </c>
       <c r="H5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1325,7 +1343,7 @@
         <v>235</v>
       </c>
       <c r="H6" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1377,7 +1395,7 @@
         <v>231</v>
       </c>
       <c r="H8" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1403,7 +1421,7 @@
         <v>231</v>
       </c>
       <c r="H9" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1429,7 +1447,7 @@
         <v>237</v>
       </c>
       <c r="H10" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1455,7 +1473,7 @@
         <v>238</v>
       </c>
       <c r="H11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1481,7 +1499,7 @@
         <v>239</v>
       </c>
       <c r="H12" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1507,7 +1525,7 @@
         <v>234</v>
       </c>
       <c r="H13" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1533,7 +1551,7 @@
         <v>232</v>
       </c>
       <c r="H14" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1585,7 +1603,7 @@
         <v>231</v>
       </c>
       <c r="H16" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1611,7 +1629,7 @@
         <v>235</v>
       </c>
       <c r="H17" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1663,7 +1681,7 @@
         <v>242</v>
       </c>
       <c r="H19" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1689,7 +1707,7 @@
         <v>243</v>
       </c>
       <c r="H20" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1715,7 +1733,7 @@
         <v>244</v>
       </c>
       <c r="H21" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1741,7 +1759,7 @@
         <v>245</v>
       </c>
       <c r="H22" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1819,7 +1837,7 @@
         <v>235</v>
       </c>
       <c r="H25" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1845,7 +1863,7 @@
         <v>232</v>
       </c>
       <c r="H26" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1871,7 +1889,7 @@
         <v>248</v>
       </c>
       <c r="H27" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1897,7 +1915,7 @@
         <v>249</v>
       </c>
       <c r="H28" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1923,7 +1941,7 @@
         <v>250</v>
       </c>
       <c r="H29" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1975,7 +1993,7 @@
         <v>235</v>
       </c>
       <c r="H31" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2001,7 +2019,7 @@
         <v>251</v>
       </c>
       <c r="H32" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2027,7 +2045,7 @@
         <v>252</v>
       </c>
       <c r="H33" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2053,7 +2071,7 @@
         <v>232</v>
       </c>
       <c r="H34" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2079,7 +2097,7 @@
         <v>253</v>
       </c>
       <c r="H35" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2153,6 +2171,12 @@
       <c r="F38" t="s">
         <v>197</v>
       </c>
+      <c r="G38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H38" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
@@ -2177,7 +2201,7 @@
         <v>235</v>
       </c>
       <c r="H39" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2199,6 +2223,12 @@
       <c r="F40" t="s">
         <v>199</v>
       </c>
+      <c r="G40" t="s">
+        <v>255</v>
+      </c>
+      <c r="H40" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
@@ -2223,7 +2253,7 @@
         <v>234</v>
       </c>
       <c r="H41" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2249,7 +2279,7 @@
         <v>234</v>
       </c>
       <c r="H42" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2275,7 +2305,7 @@
         <v>233</v>
       </c>
       <c r="H43" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2327,7 +2357,7 @@
         <v>231</v>
       </c>
       <c r="H45" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2353,7 +2383,7 @@
         <v>242</v>
       </c>
       <c r="H46" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2376,10 +2406,10 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H47" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2405,7 +2435,7 @@
         <v>245</v>
       </c>
       <c r="H48" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2431,7 +2461,7 @@
         <v>252</v>
       </c>
       <c r="H49" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2454,10 +2484,10 @@
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H50" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2483,7 +2513,7 @@
         <v>253</v>
       </c>
       <c r="H51" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2509,7 +2539,7 @@
         <v>239</v>
       </c>
       <c r="H52" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2532,10 +2562,10 @@
         <v>205</v>
       </c>
       <c r="G53" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H53" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2561,7 +2591,7 @@
         <v>239</v>
       </c>
       <c r="H54" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2587,7 +2617,7 @@
         <v>234</v>
       </c>
       <c r="H55" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2609,6 +2639,12 @@
       <c r="F56" t="s">
         <v>206</v>
       </c>
+      <c r="G56" t="s">
+        <v>242</v>
+      </c>
+      <c r="H56" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
@@ -2633,7 +2669,7 @@
         <v>249</v>
       </c>
       <c r="H57" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2656,10 +2692,10 @@
         <v>207</v>
       </c>
       <c r="G58" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H58" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2685,7 +2721,7 @@
         <v>249</v>
       </c>
       <c r="H59" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2707,6 +2743,12 @@
       <c r="F60" t="s">
         <v>208</v>
       </c>
+      <c r="G60" t="s">
+        <v>242</v>
+      </c>
+      <c r="H60" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
@@ -2731,7 +2773,7 @@
         <v>235</v>
       </c>
       <c r="H61" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2753,6 +2795,12 @@
       <c r="F62" t="s">
         <v>209</v>
       </c>
+      <c r="G62" t="s">
+        <v>260</v>
+      </c>
+      <c r="H62" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
@@ -2773,6 +2821,12 @@
       <c r="F63" t="s">
         <v>210</v>
       </c>
+      <c r="G63" t="s">
+        <v>248</v>
+      </c>
+      <c r="H63" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
@@ -2797,7 +2851,7 @@
         <v>250</v>
       </c>
       <c r="H64" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2819,6 +2873,12 @@
       <c r="F65" t="s">
         <v>212</v>
       </c>
+      <c r="G65" t="s">
+        <v>241</v>
+      </c>
+      <c r="H65" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
@@ -2866,10 +2926,10 @@
         <v>213</v>
       </c>
       <c r="G67" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H67" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2895,7 +2955,7 @@
         <v>252</v>
       </c>
       <c r="H68" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2917,6 +2977,12 @@
       <c r="F69" t="s">
         <v>214</v>
       </c>
+      <c r="G69" t="s">
+        <v>262</v>
+      </c>
+      <c r="H69" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
@@ -2967,7 +3033,7 @@
         <v>252</v>
       </c>
       <c r="H71" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2993,7 +3059,7 @@
         <v>235</v>
       </c>
       <c r="H72" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3016,10 +3082,10 @@
         <v>216</v>
       </c>
       <c r="G73" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H73" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3067,6 +3133,12 @@
       <c r="F75" t="s">
         <v>218</v>
       </c>
+      <c r="G75" t="s">
+        <v>264</v>
+      </c>
+      <c r="H75" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
@@ -3088,10 +3160,10 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H76" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3117,7 +3189,7 @@
         <v>242</v>
       </c>
       <c r="H77" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3139,6 +3211,12 @@
       <c r="F78" t="s">
         <v>220</v>
       </c>
+      <c r="G78" t="s">
+        <v>242</v>
+      </c>
+      <c r="H78" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
@@ -3159,6 +3237,12 @@
       <c r="F79" t="s">
         <v>43</v>
       </c>
+      <c r="G79" t="s">
+        <v>266</v>
+      </c>
+      <c r="H79" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
@@ -3180,10 +3264,10 @@
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H80" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3206,10 +3290,10 @@
         <v>89</v>
       </c>
       <c r="G81" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H81" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3235,7 +3319,7 @@
         <v>242</v>
       </c>
       <c r="H82" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3258,10 +3342,10 @@
         <v>221</v>
       </c>
       <c r="G83" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H83" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3287,7 +3371,7 @@
         <v>242</v>
       </c>
       <c r="H84" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3309,6 +3393,12 @@
       <c r="F85" t="s">
         <v>93</v>
       </c>
+      <c r="G85" t="s">
+        <v>242</v>
+      </c>
+      <c r="H85" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
@@ -3330,10 +3420,10 @@
         <v>223</v>
       </c>
       <c r="G86" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H86" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3355,6 +3445,12 @@
       <c r="F87" t="s">
         <v>95</v>
       </c>
+      <c r="G87" t="s">
+        <v>242</v>
+      </c>
+      <c r="H87" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
@@ -3375,6 +3471,12 @@
       <c r="F88" t="s">
         <v>96</v>
       </c>
+      <c r="G88" t="s">
+        <v>242</v>
+      </c>
+      <c r="H88" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
@@ -3399,7 +3501,7 @@
         <v>248</v>
       </c>
       <c r="H89" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3425,7 +3527,7 @@
         <v>242</v>
       </c>
       <c r="H90" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3447,6 +3549,12 @@
       <c r="F91" t="s">
         <v>226</v>
       </c>
+      <c r="G91" t="s">
+        <v>241</v>
+      </c>
+      <c r="H91" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
@@ -3467,6 +3575,12 @@
       <c r="F92" t="s">
         <v>227</v>
       </c>
+      <c r="G92" t="s">
+        <v>242</v>
+      </c>
+      <c r="H92" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
@@ -3487,6 +3601,12 @@
       <c r="F93" t="s">
         <v>101</v>
       </c>
+      <c r="G93" t="s">
+        <v>242</v>
+      </c>
+      <c r="H93" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
@@ -3511,7 +3631,7 @@
         <v>242</v>
       </c>
       <c r="H94" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3533,6 +3653,12 @@
       <c r="F95" t="s">
         <v>103</v>
       </c>
+      <c r="G95" t="s">
+        <v>242</v>
+      </c>
+      <c r="H95" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
@@ -3557,7 +3683,7 @@
         <v>231</v>
       </c>
       <c r="H96" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3583,7 +3709,7 @@
         <v>242</v>
       </c>
       <c r="H97" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3605,6 +3731,12 @@
       <c r="F98" t="s">
         <v>106</v>
       </c>
+      <c r="G98" t="s">
+        <v>242</v>
+      </c>
+      <c r="H98" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
@@ -3629,7 +3761,7 @@
         <v>251</v>
       </c>
       <c r="H99" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3651,6 +3783,12 @@
       <c r="F100" t="s">
         <v>229</v>
       </c>
+      <c r="G100" t="s">
+        <v>270</v>
+      </c>
+      <c r="H100" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
@@ -3670,6 +3808,12 @@
       </c>
       <c r="F101" t="s">
         <v>230</v>
+      </c>
+      <c r="G101" t="s">
+        <v>242</v>
+      </c>
+      <c r="H101" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220517_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220517_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="270">
   <si>
     <t>사이트</t>
   </si>
@@ -760,7 +760,7 @@
     <t>스윙</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SHOFAR</t>
@@ -776,9 +776,6 @@
   </si>
   <si>
     <t>HIGH UP</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>판타지오 뮤직</t>
@@ -1239,7 +1236,7 @@
         <v>231</v>
       </c>
       <c r="H2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1265,7 +1262,7 @@
         <v>232</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1291,7 +1288,7 @@
         <v>233</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1317,7 +1314,7 @@
         <v>234</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1343,7 +1340,7 @@
         <v>235</v>
       </c>
       <c r="H6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1395,7 +1392,7 @@
         <v>231</v>
       </c>
       <c r="H8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1421,7 +1418,7 @@
         <v>231</v>
       </c>
       <c r="H9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1447,7 +1444,7 @@
         <v>237</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1473,7 +1470,7 @@
         <v>238</v>
       </c>
       <c r="H11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1499,7 +1496,7 @@
         <v>239</v>
       </c>
       <c r="H12" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1525,7 +1522,7 @@
         <v>234</v>
       </c>
       <c r="H13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1551,7 +1548,7 @@
         <v>232</v>
       </c>
       <c r="H14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1603,7 +1600,7 @@
         <v>231</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1629,7 +1626,7 @@
         <v>235</v>
       </c>
       <c r="H17" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1681,7 +1678,7 @@
         <v>242</v>
       </c>
       <c r="H19" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1707,7 +1704,7 @@
         <v>243</v>
       </c>
       <c r="H20" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1733,7 +1730,7 @@
         <v>244</v>
       </c>
       <c r="H21" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1759,7 +1756,7 @@
         <v>245</v>
       </c>
       <c r="H22" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1837,7 +1834,7 @@
         <v>235</v>
       </c>
       <c r="H25" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1863,7 +1860,7 @@
         <v>232</v>
       </c>
       <c r="H26" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1889,7 +1886,7 @@
         <v>248</v>
       </c>
       <c r="H27" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1915,7 +1912,7 @@
         <v>249</v>
       </c>
       <c r="H28" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1941,7 +1938,7 @@
         <v>250</v>
       </c>
       <c r="H29" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1993,7 +1990,7 @@
         <v>235</v>
       </c>
       <c r="H31" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2019,7 +2016,7 @@
         <v>251</v>
       </c>
       <c r="H32" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2045,7 +2042,7 @@
         <v>252</v>
       </c>
       <c r="H33" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2071,7 +2068,7 @@
         <v>232</v>
       </c>
       <c r="H34" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2097,7 +2094,7 @@
         <v>253</v>
       </c>
       <c r="H35" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2172,10 +2169,10 @@
         <v>197</v>
       </c>
       <c r="G38" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H38" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2201,7 +2198,7 @@
         <v>235</v>
       </c>
       <c r="H39" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2224,10 +2221,10 @@
         <v>199</v>
       </c>
       <c r="G40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H40" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2253,7 +2250,7 @@
         <v>234</v>
       </c>
       <c r="H41" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2279,7 +2276,7 @@
         <v>234</v>
       </c>
       <c r="H42" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2305,7 +2302,7 @@
         <v>233</v>
       </c>
       <c r="H43" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2357,7 +2354,7 @@
         <v>231</v>
       </c>
       <c r="H45" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2383,7 +2380,7 @@
         <v>242</v>
       </c>
       <c r="H46" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2406,10 +2403,10 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H47" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2435,7 +2432,7 @@
         <v>245</v>
       </c>
       <c r="H48" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2461,7 +2458,7 @@
         <v>252</v>
       </c>
       <c r="H49" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2484,10 +2481,10 @@
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H50" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2513,7 +2510,7 @@
         <v>253</v>
       </c>
       <c r="H51" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2539,7 +2536,7 @@
         <v>239</v>
       </c>
       <c r="H52" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2562,10 +2559,10 @@
         <v>205</v>
       </c>
       <c r="G53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H53" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2591,7 +2588,7 @@
         <v>239</v>
       </c>
       <c r="H54" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2617,7 +2614,7 @@
         <v>234</v>
       </c>
       <c r="H55" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2643,7 +2640,7 @@
         <v>242</v>
       </c>
       <c r="H56" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2669,7 +2666,7 @@
         <v>249</v>
       </c>
       <c r="H57" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2692,10 +2689,10 @@
         <v>207</v>
       </c>
       <c r="G58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H58" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2721,7 +2718,7 @@
         <v>249</v>
       </c>
       <c r="H59" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2747,7 +2744,7 @@
         <v>242</v>
       </c>
       <c r="H60" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2773,7 +2770,7 @@
         <v>235</v>
       </c>
       <c r="H61" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2796,10 +2793,10 @@
         <v>209</v>
       </c>
       <c r="G62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2825,7 +2822,7 @@
         <v>248</v>
       </c>
       <c r="H63" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2851,7 +2848,7 @@
         <v>250</v>
       </c>
       <c r="H64" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2926,10 +2923,10 @@
         <v>213</v>
       </c>
       <c r="G67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2955,7 +2952,7 @@
         <v>252</v>
       </c>
       <c r="H68" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2978,10 +2975,10 @@
         <v>214</v>
       </c>
       <c r="G69" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H69" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3033,7 +3030,7 @@
         <v>252</v>
       </c>
       <c r="H71" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3059,7 +3056,7 @@
         <v>235</v>
       </c>
       <c r="H72" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3082,10 +3079,10 @@
         <v>216</v>
       </c>
       <c r="G73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H73" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3134,10 +3131,10 @@
         <v>218</v>
       </c>
       <c r="G75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H75" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3160,10 +3157,10 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H76" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3189,7 +3186,7 @@
         <v>242</v>
       </c>
       <c r="H77" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3215,7 +3212,7 @@
         <v>242</v>
       </c>
       <c r="H78" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3238,10 +3235,10 @@
         <v>43</v>
       </c>
       <c r="G79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H79" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3264,10 +3261,10 @@
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H80" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3290,10 +3287,10 @@
         <v>89</v>
       </c>
       <c r="G81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H81" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3319,7 +3316,7 @@
         <v>242</v>
       </c>
       <c r="H82" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3342,10 +3339,10 @@
         <v>221</v>
       </c>
       <c r="G83" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H83" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3371,7 +3368,7 @@
         <v>242</v>
       </c>
       <c r="H84" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3397,7 +3394,7 @@
         <v>242</v>
       </c>
       <c r="H85" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3420,10 +3417,10 @@
         <v>223</v>
       </c>
       <c r="G86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3449,7 +3446,7 @@
         <v>242</v>
       </c>
       <c r="H87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3475,7 +3472,7 @@
         <v>242</v>
       </c>
       <c r="H88" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3501,7 +3498,7 @@
         <v>248</v>
       </c>
       <c r="H89" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3527,7 +3524,7 @@
         <v>242</v>
       </c>
       <c r="H90" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3579,7 +3576,7 @@
         <v>242</v>
       </c>
       <c r="H92" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3605,7 +3602,7 @@
         <v>242</v>
       </c>
       <c r="H93" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3631,7 +3628,7 @@
         <v>242</v>
       </c>
       <c r="H94" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3657,7 +3654,7 @@
         <v>242</v>
       </c>
       <c r="H95" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3683,7 +3680,7 @@
         <v>231</v>
       </c>
       <c r="H96" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3709,7 +3706,7 @@
         <v>242</v>
       </c>
       <c r="H97" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3735,7 +3732,7 @@
         <v>242</v>
       </c>
       <c r="H98" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3761,7 +3758,7 @@
         <v>251</v>
       </c>
       <c r="H99" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3784,10 +3781,10 @@
         <v>229</v>
       </c>
       <c r="G100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H100" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3813,7 +3810,7 @@
         <v>242</v>
       </c>
       <c r="H101" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
